--- a/PRODUTOS/Bebidas/Bebidas - Agua.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Agua.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Água Mineral Sem Gás Crystal 1,5l</t>
+          <t>Água Saborizada Crystal Sparkling Tangerina 510ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/079ce182-7c2a-4ab4-bfcf-70c85c8feef4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/963867ad-248f-43e5-8711-1ace0e377498.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7894900523003</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás Minalba 510ml</t>
+          <t>Agua Crystal Smartwater 591ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c238926f-79fb-4682-b376-c4f7253e922b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe96ac12-201b-4c91-a567-54b40e7663ba.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7894900524505</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás Crystal 500ml</t>
+          <t>Água Mineral Minalba Sem Gás Lata 310ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2a0bba5-4988-420f-87d1-05e19ec9749e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33c26acb-380f-4cc3-9e17-5dfc722dee34.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896065890396</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás Crystal 1,5l</t>
+          <t>Água Mineral Com Gás Minalba 1,5l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1b6ba96-6b33-4c20-9147-620dad57240a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcb0e384-dcc5-4d28-8efd-6396cc57daa9.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896065870510</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Água Mineral Pureza Vital Com Gás 1,5lt</t>
+          <t>Água Mineral Com Gás Mamba Water Lata 350ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d38b4fc-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4672784-2730-4e01-86ea-b6c33539d56d.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898968759015</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás Minalba 1,5l</t>
+          <t>Água Mineral Minalba Sem Gás 510ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcb0e384-dcc5-4d28-8efd-6396cc57daa9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c4c24fb-4c8a-4e62-b508-5d98cf63cbc5.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896065880069</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Água Mineral Crystal Sem Gás 5l</t>
+          <t>Água Mineral Sem Gás Minalba 1,5l</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/588b6982-123d-4c11-8236-16af8171c338.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc27784d-bfba-4794-9dd6-3c1fad681cd2.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896065870510</t>
         </is>
       </c>
     </row>
@@ -650,422 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Água Mineral Minalba Sem Gás 510ml</t>
+          <t>Água Mineral Sem Gás Mamba Water Lata 350ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 2,39</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c4c24fb-4c8a-4e62-b508-5d98cf63cbc5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Água Mineral Sem Gás Crystal 1lt</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f788eb05-d7f7-46d5-bbe0-26d62de5035f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Água Mineral Crystal Sem Gás 500ml</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R$ 2,29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2a6e398-0c41-4e99-a45e-5cd266d6896d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Água Mineral Pureza Vital Sem Gás 510 Ml</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7ddc052-88d0-4856-9e36-02cdb5c7e4e4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Água Mineral Com Gás Vip Crystal 350ml</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 2,59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b2ab4d6-6153-437f-a484-d11595da442b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Água Mineral Minalba Sem Gás 5lt</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffdf80e0-1986-483e-9009-eec88d6e70d3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Água Saborizada Crystal Sparkling Tangerina 510ml</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/963867ad-248f-43e5-8711-1ace0e377498.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Água Sem Gás Ibira 510ml</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 2,89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db8e9673-4e3c-41a6-8979-a95e21a4d610.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Água Mineral Vip Crystal Sem Gás 350ml</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 2,49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58327bb1-49ed-4dc3-befc-b3476ec01f7d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Água Mineral Com Gás Mamba Water Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4672784-2730-4e01-86ea-b6c33539d56d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Água Mineral São Lourenço Sem Gás Pet 1,26lt</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 3,69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0547e702-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Água Mineral Minalba Com Gás Lata 310ml</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 4,39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12232e41-1203-4710-aeea-6e13548bf51c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Água Mineral Sem Gás Prata 510ml</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 3,59</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2837972-57ec-4085-88da-a69e4e210759.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Agua Crystal Smartwater 591ml</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 5,69</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe96ac12-201b-4c91-a567-54b40e7663ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Água Mineral Minalba Sem Gás Lata 310ml</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33c26acb-380f-4cc3-9e17-5dfc722dee34.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Água Mineral Sem Gás Mamba Water Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2436f24-a2b3-4514-ab0d-f8c4850cc993.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898968759015</t>
         </is>
       </c>
     </row>
